--- a/visualizations/demands_per_scenario_year.xlsx
+++ b/visualizations/demands_per_scenario_year.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="7">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="8">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="9">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="10">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="14">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="15">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="16">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="17">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="18">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="19">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="20">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="21">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="22">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="24">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="25">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="26">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="27">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="28">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="30">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="31">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="32">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="33">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="34">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="35">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="36">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="37">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="38">
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="40">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="41">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="42">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="44">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="45">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="46">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="47">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="48">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="49">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="50">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="51">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="52">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="53">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="54">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="55">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="56">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="57">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="58">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="59">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="60">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="61">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="62">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="63">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="64">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="65">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="66">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="67">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="68">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="69">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="70">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="71">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="72">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="73">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="74">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="75">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="76">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="77">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="78">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="79">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="80">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="81">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="82">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="83">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="84">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="85">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="86">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="87">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="88">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="89">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="90">
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="91">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="92">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="93">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="94">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="95">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="96">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="97">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="98">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="99">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="100">
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="101">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="102">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="103">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="104">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="105">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="106">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4809.046968660001</v>
+        <v>5535.56201198</v>
       </c>
     </row>
     <row r="107">
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="108">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4809.046968660001</v>
+        <v>5535.56201198</v>
       </c>
     </row>
     <row r="109">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="110">
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="111">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="112">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="113">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5205.05265918</v>
+        <v>6629.40397702</v>
       </c>
     </row>
     <row r="114">
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="115">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="116">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="117">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="118">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="119">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="120">
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="121">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="122">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="123">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="124">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="125">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="126">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="127">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="128">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="129">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="130">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="131">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>7060.598360445</v>
+        <v>8416.53948492</v>
       </c>
     </row>
     <row r="132">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="133">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>7060.598360445</v>
+        <v>8416.53948492</v>
       </c>
     </row>
     <row r="134">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1845.48784257</v>
+        <v>1847.65460967</v>
       </c>
     </row>
     <row r="135">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2859.97100292</v>
+        <v>2856.27942765</v>
       </c>
     </row>
     <row r="136">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2795.27742702</v>
+        <v>3389.07721266</v>
       </c>
     </row>
     <row r="137">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4258.679448419999</v>
+        <v>5424.057799380001</v>
       </c>
     </row>
     <row r="138">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3934.67479254</v>
+        <v>4529.09619162</v>
       </c>
     </row>
     <row r="139">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6051.94145181</v>
+        <v>7214.176701360001</v>
       </c>
     </row>
     <row r="140">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3934.67479254</v>
+        <v>4529.09619162</v>
       </c>
     </row>
     <row r="141">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6051.94145181</v>
+        <v>7214.176701360001</v>
       </c>
     </row>
     <row r="142">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3934.67479254</v>
+        <v>4529.09619162</v>
       </c>
     </row>
     <row r="143">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6051.94145181</v>
+        <v>7214.176701360001</v>
       </c>
     </row>
     <row r="144">
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3934.67479254</v>
+        <v>4529.09619162</v>
       </c>
     </row>
     <row r="145">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>6051.94145181</v>
+        <v>7214.176701360001</v>
       </c>
     </row>
     <row r="146">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="147">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="148">
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="149">
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="150">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="151">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="152">
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="153">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="154">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="155">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="156">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="157">
@@ -4040,7 +4040,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="158">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="159">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="160">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="161">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="162">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="163">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="164">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="165">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="166">
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="167">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="168">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="169">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="170">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="171">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="172">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="173">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="174">
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="175">
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="176">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="177">
@@ -4500,7 +4500,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="178">
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="179">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="180">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="181">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="182">
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>2050.5420473</v>
+        <v>2052.9495663</v>
       </c>
     </row>
     <row r="183">
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3177.7455588</v>
+        <v>3173.6438085</v>
       </c>
     </row>
     <row r="184">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3105.8638078</v>
+        <v>3765.6413474</v>
       </c>
     </row>
     <row r="185">
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4731.866053799999</v>
+        <v>6026.730888199999</v>
       </c>
     </row>
     <row r="186">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="187">
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="188">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="189">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="190">
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="191">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
     <row r="192">
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4371.860880599999</v>
+        <v>5032.3291018</v>
       </c>
     </row>
     <row r="193">
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>6724.379390899999</v>
+        <v>8015.7518904</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/demands_per_scenario_year.xlsx
+++ b/visualizations/demands_per_scenario_year.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
